--- a/slevy.xlsx
+++ b/slevy.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Z66483668\source\repos\kupi_ceny\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2178FC98-ADC2-4A48-860A-B6ADA4CB8C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -985,97 +979,97 @@
     <t>48,90 Kč</t>
   </si>
   <si>
-    <t> / 120 g</t>
-  </si>
-  <si>
-    <t> / 100 g</t>
-  </si>
-  <si>
-    <t> / 2x 100 g</t>
-  </si>
-  <si>
-    <t> / 125 g</t>
-  </si>
-  <si>
-    <t> / 150 g</t>
-  </si>
-  <si>
-    <t> / 500 g</t>
-  </si>
-  <si>
-    <t> / 170 g</t>
-  </si>
-  <si>
-    <t> / 160 g</t>
-  </si>
-  <si>
-    <t> / 200 g</t>
-  </si>
-  <si>
-    <t> / 380 g</t>
-  </si>
-  <si>
-    <t> / 180 g</t>
-  </si>
-  <si>
-    <t> / 90 g</t>
-  </si>
-  <si>
-    <t> / 2000 g</t>
-  </si>
-  <si>
-    <t> / 105 g</t>
-  </si>
-  <si>
-    <t> / 115 g</t>
-  </si>
-  <si>
-    <t> / 60 g</t>
-  </si>
-  <si>
-    <t> / 3x 20 g</t>
-  </si>
-  <si>
-    <t> / 250 g</t>
-  </si>
-  <si>
-    <t> / 400 g</t>
-  </si>
-  <si>
-    <t> / 1000 g</t>
-  </si>
-  <si>
-    <t> / 270 g</t>
-  </si>
-  <si>
-    <t> / 110 g</t>
-  </si>
-  <si>
-    <t> / 140 g</t>
-  </si>
-  <si>
-    <t> / 300 g</t>
-  </si>
-  <si>
-    <t> / 80 g</t>
-  </si>
-  <si>
-    <t> / 95 g</t>
-  </si>
-  <si>
-    <t> / 40 g</t>
-  </si>
-  <si>
-    <t> / 33 g</t>
-  </si>
-  <si>
-    <t> / 75 g</t>
-  </si>
-  <si>
-    <t> / 96 g</t>
-  </si>
-  <si>
-    <t> / 130 g</t>
+    <t xml:space="preserve"> / 120 g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> / 100 g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> / 2x 100 g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> / 125 g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> / 150 g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> / 500 g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> / 170 g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> / 160 g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> / 200 g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> / 380 g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> / 180 g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> / 90 g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> / 2000 g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> / 105 g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> / 115 g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> / 60 g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> / 3x 20 g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> / 250 g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> / 400 g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> / 1000 g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> / 270 g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> / 110 g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> / 140 g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> / 300 g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> / 80 g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> / 95 g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> / 40 g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> / 33 g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> / 75 g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> / 96 g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> / 130 g</t>
   </si>
   <si>
     <t>24,92 Kč / 100 g</t>
@@ -2059,8 +2053,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2123,21 +2117,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2175,7 +2161,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2209,7 +2195,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2244,10 +2229,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2420,29 +2404,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="D16" sqref="D15:D16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.73046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.46484375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.46484375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.46484375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.86328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.53125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2477,7 +2446,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2512,7 +2481,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2547,7 +2516,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2582,7 +2551,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2617,7 +2586,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -2652,7 +2621,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -2687,7 +2656,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2722,7 +2691,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2757,7 +2726,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2792,7 +2761,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -2827,7 +2796,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2862,7 +2831,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2897,7 +2866,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -2932,7 +2901,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -2967,7 +2936,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -3002,7 +2971,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -3037,7 +3006,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -3072,7 +3041,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -3107,7 +3076,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -3142,7 +3111,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -3177,7 +3146,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -3212,7 +3181,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -3247,7 +3216,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -3282,7 +3251,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -3317,7 +3286,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -3352,7 +3321,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -3387,7 +3356,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -3422,7 +3391,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -3457,7 +3426,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -3492,7 +3461,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -3527,7 +3496,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -3562,7 +3531,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -3597,7 +3566,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -3632,7 +3601,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -3667,7 +3636,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -3702,7 +3671,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -3737,7 +3706,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -3772,7 +3741,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -3807,7 +3776,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -3842,7 +3811,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -3877,7 +3846,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -3912,7 +3881,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -3947,7 +3916,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
         <v>11</v>
       </c>
@@ -3982,7 +3951,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -4017,7 +3986,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -4052,7 +4021,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -4087,7 +4056,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -4122,7 +4091,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -4157,7 +4126,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
         <v>11</v>
       </c>
@@ -4192,7 +4161,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -4227,7 +4196,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
         <v>11</v>
       </c>
@@ -4262,7 +4231,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
         <v>11</v>
       </c>
@@ -4297,7 +4266,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -4332,7 +4301,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -4367,7 +4336,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -4402,7 +4371,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -4437,7 +4406,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
         <v>11</v>
       </c>
@@ -4472,7 +4441,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -4507,7 +4476,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:11">
       <c r="A60" t="s">
         <v>11</v>
       </c>
@@ -4542,7 +4511,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:11">
       <c r="A61" t="s">
         <v>11</v>
       </c>
@@ -4577,7 +4546,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:11">
       <c r="A62" t="s">
         <v>11</v>
       </c>
@@ -4612,7 +4581,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:11">
       <c r="A63" t="s">
         <v>11</v>
       </c>
@@ -4647,7 +4616,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:11">
       <c r="A64" t="s">
         <v>11</v>
       </c>
@@ -4682,7 +4651,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:11">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -4717,7 +4686,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:11">
       <c r="A66" t="s">
         <v>11</v>
       </c>
@@ -4752,7 +4721,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:11">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -4787,7 +4756,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:11">
       <c r="A68" t="s">
         <v>11</v>
       </c>
@@ -4822,7 +4791,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:11">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -4857,7 +4826,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:11">
       <c r="A70" t="s">
         <v>11</v>
       </c>
@@ -4892,7 +4861,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:11">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -4927,7 +4896,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:11">
       <c r="A72" t="s">
         <v>11</v>
       </c>
@@ -4962,7 +4931,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:11">
       <c r="A73" t="s">
         <v>11</v>
       </c>
@@ -4997,7 +4966,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:11">
       <c r="A74" t="s">
         <v>11</v>
       </c>
@@ -5032,7 +5001,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:11">
       <c r="A75" t="s">
         <v>11</v>
       </c>
@@ -5067,7 +5036,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:11">
       <c r="A76" t="s">
         <v>11</v>
       </c>
@@ -5102,7 +5071,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:11">
       <c r="A77" t="s">
         <v>11</v>
       </c>
@@ -5137,7 +5106,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:11">
       <c r="A78" t="s">
         <v>11</v>
       </c>
@@ -5172,7 +5141,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:11">
       <c r="A79" t="s">
         <v>11</v>
       </c>
@@ -5207,7 +5176,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:11">
       <c r="A80" t="s">
         <v>11</v>
       </c>
@@ -5242,7 +5211,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:11">
       <c r="A81" t="s">
         <v>11</v>
       </c>
@@ -5277,7 +5246,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:11">
       <c r="A82" t="s">
         <v>11</v>
       </c>
@@ -5312,7 +5281,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:11">
       <c r="A83" t="s">
         <v>11</v>
       </c>
@@ -5347,7 +5316,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:11">
       <c r="A84" t="s">
         <v>11</v>
       </c>
@@ -5382,7 +5351,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:11">
       <c r="A85" t="s">
         <v>11</v>
       </c>
@@ -5417,7 +5386,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:11">
       <c r="A86" t="s">
         <v>11</v>
       </c>
@@ -5452,7 +5421,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:11">
       <c r="A87" t="s">
         <v>11</v>
       </c>
@@ -5487,7 +5456,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:11">
       <c r="A88" t="s">
         <v>11</v>
       </c>
@@ -5522,7 +5491,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:11">
       <c r="A89" t="s">
         <v>11</v>
       </c>
@@ -5557,7 +5526,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:11">
       <c r="A90" t="s">
         <v>11</v>
       </c>
@@ -5592,7 +5561,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:11">
       <c r="A91" t="s">
         <v>11</v>
       </c>
@@ -5627,7 +5596,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:11">
       <c r="A92" t="s">
         <v>11</v>
       </c>
@@ -5662,7 +5631,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:11">
       <c r="A93" t="s">
         <v>11</v>
       </c>
@@ -5697,7 +5666,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:11">
       <c r="A94" t="s">
         <v>11</v>
       </c>
@@ -5732,7 +5701,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:11">
       <c r="A95" t="s">
         <v>11</v>
       </c>
@@ -5767,7 +5736,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:11">
       <c r="A96" t="s">
         <v>11</v>
       </c>
@@ -5802,7 +5771,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:11">
       <c r="A97" t="s">
         <v>11</v>
       </c>
@@ -5837,7 +5806,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:11">
       <c r="A98" t="s">
         <v>11</v>
       </c>
@@ -5872,7 +5841,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:11">
       <c r="A99" t="s">
         <v>11</v>
       </c>
@@ -5907,7 +5876,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:11">
       <c r="A100" t="s">
         <v>11</v>
       </c>
@@ -5942,7 +5911,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:11">
       <c r="A101" t="s">
         <v>11</v>
       </c>
@@ -5977,7 +5946,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:11">
       <c r="A102" t="s">
         <v>11</v>
       </c>
@@ -6012,7 +5981,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:11">
       <c r="A103" t="s">
         <v>11</v>
       </c>
@@ -6047,7 +6016,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:11">
       <c r="A104" t="s">
         <v>11</v>
       </c>
@@ -6082,7 +6051,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:11">
       <c r="A105" t="s">
         <v>11</v>
       </c>
@@ -6117,7 +6086,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:11">
       <c r="A106" t="s">
         <v>11</v>
       </c>
@@ -6152,7 +6121,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:11">
       <c r="A107" t="s">
         <v>11</v>
       </c>
@@ -6187,7 +6156,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:11">
       <c r="A108" t="s">
         <v>11</v>
       </c>
@@ -6222,7 +6191,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:11">
       <c r="A109" t="s">
         <v>11</v>
       </c>
@@ -6257,7 +6226,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:11">
       <c r="A110" t="s">
         <v>11</v>
       </c>
@@ -6292,7 +6261,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:11">
       <c r="A111" t="s">
         <v>11</v>
       </c>
@@ -6327,7 +6296,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:11">
       <c r="A112" t="s">
         <v>11</v>
       </c>
@@ -6362,7 +6331,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:11">
       <c r="A113" t="s">
         <v>11</v>
       </c>
@@ -6397,7 +6366,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:11">
       <c r="A114" t="s">
         <v>11</v>
       </c>
@@ -6432,7 +6401,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:11">
       <c r="A115" t="s">
         <v>11</v>
       </c>
@@ -6467,7 +6436,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:11">
       <c r="A116" t="s">
         <v>11</v>
       </c>
@@ -6502,7 +6471,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:11">
       <c r="A117" t="s">
         <v>11</v>
       </c>
@@ -6537,7 +6506,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:11">
       <c r="A118" t="s">
         <v>11</v>
       </c>
@@ -6572,7 +6541,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:11">
       <c r="A119" t="s">
         <v>11</v>
       </c>
@@ -6607,7 +6576,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:11">
       <c r="A120" t="s">
         <v>11</v>
       </c>
@@ -6642,7 +6611,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:11">
       <c r="A121" t="s">
         <v>11</v>
       </c>
@@ -6677,7 +6646,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:11">
       <c r="A122" t="s">
         <v>11</v>
       </c>
@@ -6712,7 +6681,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:11">
       <c r="A123" t="s">
         <v>11</v>
       </c>
@@ -6747,7 +6716,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:11">
       <c r="A124" t="s">
         <v>11</v>
       </c>
@@ -6782,7 +6751,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:11">
       <c r="A125" t="s">
         <v>11</v>
       </c>
@@ -6817,7 +6786,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:11">
       <c r="A126" t="s">
         <v>11</v>
       </c>
@@ -6852,7 +6821,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:11">
       <c r="A127" t="s">
         <v>11</v>
       </c>
@@ -6887,7 +6856,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:11">
       <c r="A128" t="s">
         <v>11</v>
       </c>
@@ -6922,7 +6891,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:11">
       <c r="A129" t="s">
         <v>11</v>
       </c>
@@ -6957,7 +6926,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:11">
       <c r="A130" t="s">
         <v>11</v>
       </c>
@@ -6992,7 +6961,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:11">
       <c r="A131" t="s">
         <v>11</v>
       </c>
@@ -7027,7 +6996,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:11">
       <c r="A132" t="s">
         <v>11</v>
       </c>
@@ -7062,7 +7031,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:11">
       <c r="A133" t="s">
         <v>11</v>
       </c>
@@ -7097,7 +7066,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:11">
       <c r="A134" t="s">
         <v>11</v>
       </c>
@@ -7132,7 +7101,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:11">
       <c r="A135" t="s">
         <v>11</v>
       </c>
@@ -7167,7 +7136,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:11">
       <c r="A136" t="s">
         <v>11</v>
       </c>
@@ -7202,7 +7171,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:11">
       <c r="A137" t="s">
         <v>11</v>
       </c>
@@ -7237,7 +7206,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:11">
       <c r="A138" t="s">
         <v>11</v>
       </c>
@@ -7272,7 +7241,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:11">
       <c r="A139" t="s">
         <v>11</v>
       </c>
@@ -7307,7 +7276,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:11">
       <c r="A140" t="s">
         <v>11</v>
       </c>
@@ -7342,7 +7311,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:11">
       <c r="A141" t="s">
         <v>11</v>
       </c>
@@ -7377,7 +7346,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:11">
       <c r="A142" t="s">
         <v>11</v>
       </c>
@@ -7412,7 +7381,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:11">
       <c r="A143" t="s">
         <v>11</v>
       </c>
@@ -7447,7 +7416,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:11">
       <c r="A144" t="s">
         <v>11</v>
       </c>
@@ -7482,7 +7451,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:11">
       <c r="A145" t="s">
         <v>11</v>
       </c>
@@ -7517,7 +7486,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:11">
       <c r="A146" t="s">
         <v>11</v>
       </c>
@@ -7552,7 +7521,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:11">
       <c r="A147" t="s">
         <v>11</v>
       </c>
@@ -7587,7 +7556,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:11">
       <c r="A148" t="s">
         <v>11</v>
       </c>
@@ -7622,7 +7591,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:11">
       <c r="A149" t="s">
         <v>11</v>
       </c>
@@ -7657,7 +7626,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:11">
       <c r="A150" t="s">
         <v>11</v>
       </c>
@@ -7692,7 +7661,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:11">
       <c r="A151" t="s">
         <v>11</v>
       </c>
@@ -7727,7 +7696,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:11">
       <c r="A152" t="s">
         <v>11</v>
       </c>
@@ -7762,7 +7731,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:11">
       <c r="A153" t="s">
         <v>11</v>
       </c>
@@ -7797,7 +7766,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:11">
       <c r="A154" t="s">
         <v>11</v>
       </c>
@@ -7832,7 +7801,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:11">
       <c r="A155" t="s">
         <v>11</v>
       </c>
@@ -7867,7 +7836,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:11">
       <c r="A156" t="s">
         <v>11</v>
       </c>
@@ -7902,7 +7871,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:11">
       <c r="A157" t="s">
         <v>11</v>
       </c>
@@ -7937,7 +7906,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:11">
       <c r="A158" t="s">
         <v>11</v>
       </c>
@@ -7972,7 +7941,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:11">
       <c r="A159" t="s">
         <v>11</v>
       </c>
@@ -8007,7 +7976,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:11">
       <c r="A160" t="s">
         <v>11</v>
       </c>
@@ -8042,7 +8011,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:11">
       <c r="A161" t="s">
         <v>11</v>
       </c>
@@ -8077,7 +8046,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:11">
       <c r="A162" t="s">
         <v>11</v>
       </c>
@@ -8112,7 +8081,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:11">
       <c r="A163" t="s">
         <v>11</v>
       </c>
@@ -8147,7 +8116,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:11">
       <c r="A164" t="s">
         <v>11</v>
       </c>
@@ -8182,7 +8151,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:11">
       <c r="A165" t="s">
         <v>11</v>
       </c>
@@ -8217,7 +8186,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:11">
       <c r="A166" t="s">
         <v>11</v>
       </c>
@@ -8252,7 +8221,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:11">
       <c r="A167" t="s">
         <v>11</v>
       </c>
@@ -8287,7 +8256,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:11">
       <c r="A168" t="s">
         <v>11</v>
       </c>
@@ -8322,7 +8291,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:11">
       <c r="A169" t="s">
         <v>11</v>
       </c>
@@ -8357,7 +8326,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:11">
       <c r="A170" t="s">
         <v>11</v>
       </c>
@@ -8392,7 +8361,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:11">
       <c r="A171" t="s">
         <v>11</v>
       </c>
@@ -8427,7 +8396,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:11">
       <c r="A172" t="s">
         <v>11</v>
       </c>
@@ -8462,7 +8431,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:11">
       <c r="A173" t="s">
         <v>11</v>
       </c>
@@ -8497,7 +8466,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:11">
       <c r="A174" t="s">
         <v>11</v>
       </c>
@@ -8532,7 +8501,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:11">
       <c r="A175" t="s">
         <v>11</v>
       </c>
@@ -8567,7 +8536,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:11">
       <c r="A176" t="s">
         <v>11</v>
       </c>
@@ -8602,7 +8571,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:11">
       <c r="A177" t="s">
         <v>11</v>
       </c>
@@ -8637,7 +8606,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:11">
       <c r="A178" t="s">
         <v>11</v>
       </c>
@@ -8672,7 +8641,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:11">
       <c r="A179" t="s">
         <v>11</v>
       </c>
@@ -8707,7 +8676,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:11">
       <c r="A180" t="s">
         <v>11</v>
       </c>
@@ -8742,7 +8711,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:11">
       <c r="A181" t="s">
         <v>11</v>
       </c>
@@ -8777,7 +8746,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:11">
       <c r="A182" t="s">
         <v>11</v>
       </c>
@@ -8812,7 +8781,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:11">
       <c r="A183" t="s">
         <v>11</v>
       </c>
@@ -8847,7 +8816,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:11">
       <c r="A184" t="s">
         <v>11</v>
       </c>
@@ -8882,7 +8851,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:11">
       <c r="A185" t="s">
         <v>11</v>
       </c>
@@ -8917,7 +8886,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:11">
       <c r="A186" t="s">
         <v>11</v>
       </c>
@@ -8952,7 +8921,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:11">
       <c r="A187" t="s">
         <v>11</v>
       </c>
@@ -8987,7 +8956,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:11">
       <c r="A188" t="s">
         <v>11</v>
       </c>
@@ -9022,7 +8991,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:11">
       <c r="A189" t="s">
         <v>11</v>
       </c>
@@ -9057,7 +9026,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:11">
       <c r="A190" t="s">
         <v>11</v>
       </c>
@@ -9092,7 +9061,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:11">
       <c r="A191" t="s">
         <v>11</v>
       </c>
@@ -9127,7 +9096,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:11">
       <c r="A192" t="s">
         <v>11</v>
       </c>
@@ -9162,7 +9131,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:11">
       <c r="A193" t="s">
         <v>11</v>
       </c>
@@ -9197,7 +9166,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:11">
       <c r="A194" t="s">
         <v>11</v>
       </c>
@@ -9232,7 +9201,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:11">
       <c r="A195" t="s">
         <v>11</v>
       </c>
@@ -9267,7 +9236,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:11">
       <c r="A196" t="s">
         <v>11</v>
       </c>
@@ -9302,7 +9271,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:11">
       <c r="A197" t="s">
         <v>11</v>
       </c>
@@ -9337,7 +9306,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:11">
       <c r="A198" t="s">
         <v>11</v>
       </c>
@@ -9372,7 +9341,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:11">
       <c r="A199" t="s">
         <v>11</v>
       </c>
@@ -9407,7 +9376,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:11">
       <c r="A200" t="s">
         <v>11</v>
       </c>
@@ -9442,7 +9411,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:11">
       <c r="A201" t="s">
         <v>11</v>
       </c>
@@ -9477,7 +9446,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:11">
       <c r="A202" t="s">
         <v>11</v>
       </c>
@@ -9512,7 +9481,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:11">
       <c r="A203" t="s">
         <v>11</v>
       </c>
@@ -9547,7 +9516,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:11">
       <c r="A204" t="s">
         <v>11</v>
       </c>
@@ -9582,7 +9551,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:11">
       <c r="A205" t="s">
         <v>11</v>
       </c>
@@ -9617,7 +9586,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:11">
       <c r="A206" t="s">
         <v>11</v>
       </c>
@@ -9652,7 +9621,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:11">
       <c r="A207" t="s">
         <v>11</v>
       </c>
@@ -9687,7 +9656,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:11">
       <c r="A208" t="s">
         <v>11</v>
       </c>
@@ -9722,7 +9691,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:11">
       <c r="A209" t="s">
         <v>11</v>
       </c>
@@ -9757,7 +9726,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:11">
       <c r="A210" t="s">
         <v>11</v>
       </c>
@@ -9792,7 +9761,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:11">
       <c r="A211" t="s">
         <v>11</v>
       </c>
@@ -9827,7 +9796,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:11">
       <c r="A212" t="s">
         <v>11</v>
       </c>
@@ -9862,7 +9831,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:11">
       <c r="A213" t="s">
         <v>11</v>
       </c>
@@ -9897,7 +9866,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:11">
       <c r="A214" t="s">
         <v>11</v>
       </c>
@@ -9932,7 +9901,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:11">
       <c r="A215" t="s">
         <v>11</v>
       </c>
@@ -9967,7 +9936,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:11">
       <c r="A216" t="s">
         <v>11</v>
       </c>
@@ -10002,7 +9971,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:11">
       <c r="A217" t="s">
         <v>11</v>
       </c>
@@ -10037,7 +10006,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:11">
       <c r="A218" t="s">
         <v>11</v>
       </c>
@@ -10072,7 +10041,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:11">
       <c r="A219" t="s">
         <v>11</v>
       </c>
@@ -10107,7 +10076,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:11">
       <c r="A220" t="s">
         <v>11</v>
       </c>
@@ -10142,7 +10111,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:11">
       <c r="A221" t="s">
         <v>11</v>
       </c>
@@ -10177,7 +10146,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:11">
       <c r="A222" t="s">
         <v>11</v>
       </c>
@@ -10212,7 +10181,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:11">
       <c r="A223" t="s">
         <v>11</v>
       </c>
@@ -10247,7 +10216,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:11">
       <c r="A224" t="s">
         <v>11</v>
       </c>
@@ -10282,7 +10251,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:11">
       <c r="A225" t="s">
         <v>11</v>
       </c>
@@ -10317,7 +10286,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:11">
       <c r="A226" t="s">
         <v>11</v>
       </c>
@@ -10352,7 +10321,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:11">
       <c r="A227" t="s">
         <v>11</v>
       </c>
@@ -10387,7 +10356,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:11">
       <c r="A228" t="s">
         <v>11</v>
       </c>
@@ -10422,7 +10391,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:11">
       <c r="A229" t="s">
         <v>11</v>
       </c>
@@ -10457,7 +10426,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:11">
       <c r="A230" t="s">
         <v>11</v>
       </c>
@@ -10492,7 +10461,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:11">
       <c r="A231" t="s">
         <v>11</v>
       </c>
@@ -10527,7 +10496,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:11">
       <c r="A232" t="s">
         <v>11</v>
       </c>
@@ -10562,7 +10531,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:11">
       <c r="A233" t="s">
         <v>11</v>
       </c>
@@ -10597,7 +10566,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:11">
       <c r="A234" t="s">
         <v>11</v>
       </c>
@@ -10632,7 +10601,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:11">
       <c r="A235" t="s">
         <v>11</v>
       </c>
@@ -10667,7 +10636,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:11">
       <c r="A236" t="s">
         <v>11</v>
       </c>
@@ -10702,7 +10671,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:11">
       <c r="A237" t="s">
         <v>11</v>
       </c>
@@ -10737,7 +10706,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:11">
       <c r="A238" t="s">
         <v>11</v>
       </c>
@@ -10772,7 +10741,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:11">
       <c r="A239" t="s">
         <v>11</v>
       </c>
@@ -10807,7 +10776,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:11">
       <c r="A240" t="s">
         <v>11</v>
       </c>
@@ -10842,7 +10811,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:11">
       <c r="A241" t="s">
         <v>11</v>
       </c>
@@ -10877,7 +10846,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:11">
       <c r="A242" t="s">
         <v>11</v>
       </c>
@@ -10912,7 +10881,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:11">
       <c r="A243" t="s">
         <v>11</v>
       </c>
@@ -10947,7 +10916,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:11">
       <c r="A244" t="s">
         <v>11</v>
       </c>
@@ -10982,7 +10951,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:11">
       <c r="A245" t="s">
         <v>11</v>
       </c>
@@ -11017,7 +10986,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:11">
       <c r="A246" t="s">
         <v>11</v>
       </c>
@@ -11052,7 +11021,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:11">
       <c r="A247" t="s">
         <v>11</v>
       </c>
@@ -11087,7 +11056,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:11">
       <c r="A248" t="s">
         <v>11</v>
       </c>
@@ -11122,7 +11091,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:11">
       <c r="A249" t="s">
         <v>11</v>
       </c>
@@ -11157,7 +11126,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:11">
       <c r="A250" t="s">
         <v>11</v>
       </c>
@@ -11192,7 +11161,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:11">
       <c r="A251" t="s">
         <v>11</v>
       </c>
@@ -11227,7 +11196,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:11">
       <c r="A252" t="s">
         <v>11</v>
       </c>
@@ -11262,7 +11231,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:11">
       <c r="A253" t="s">
         <v>11</v>
       </c>
@@ -11297,7 +11266,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:11">
       <c r="A254" t="s">
         <v>11</v>
       </c>
@@ -11332,7 +11301,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:11">
       <c r="A255" t="s">
         <v>11</v>
       </c>
@@ -11367,7 +11336,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:11">
       <c r="A256" t="s">
         <v>11</v>
       </c>
@@ -11402,7 +11371,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:11">
       <c r="A257" t="s">
         <v>11</v>
       </c>
@@ -11437,7 +11406,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:11">
       <c r="A258" t="s">
         <v>11</v>
       </c>
@@ -11472,7 +11441,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:11">
       <c r="A259" t="s">
         <v>11</v>
       </c>
@@ -11507,7 +11476,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:11">
       <c r="A260" t="s">
         <v>11</v>
       </c>
@@ -11542,7 +11511,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:11">
       <c r="A261" t="s">
         <v>11</v>
       </c>
@@ -11577,7 +11546,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:11">
       <c r="A262" t="s">
         <v>11</v>
       </c>
@@ -11612,7 +11581,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:11">
       <c r="A263" t="s">
         <v>11</v>
       </c>
@@ -11647,7 +11616,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:11">
       <c r="A264" t="s">
         <v>11</v>
       </c>
@@ -11682,7 +11651,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:11">
       <c r="A265" t="s">
         <v>11</v>
       </c>
@@ -11717,7 +11686,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:11">
       <c r="A266" t="s">
         <v>11</v>
       </c>
